--- a/resources/Database.xlsx
+++ b/resources/Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2159263c0a168378/School/Informatica/Leerjaar 1/Praktische Opdracht Professionele Vaardigheden/challengeweek/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2159263c0a168378/School/Informatica/Leerjaar 1/Praktische Opdracht Professionele Vaardigheden/challengeweek/SortingHat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5B55C7-608A-4855-8D4E-AF44EEE8839D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008D95C8-39D7-4240-9158-EE1990F97764}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
   <si>
     <t>Vragen</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Punten</t>
   </si>
   <si>
-    <t>Extra info</t>
-  </si>
-  <si>
     <t>In welke richting heb je al interesse?</t>
   </si>
   <si>
@@ -51,34 +48,22 @@
     <t>FICT</t>
   </si>
   <si>
-    <t>Voorkeur wordt aan het eind aangegeven &amp; ontgrendeld 5 inhoudelijke bonusvragen voor FICT</t>
-  </si>
-  <si>
     <t>Interactie-Technologie</t>
   </si>
   <si>
     <t>IICT</t>
   </si>
   <si>
-    <t>Voorkeur wordt aan het eind aangegeven &amp; ontgrendeld 5 inhoudelijke bonusvragen voor IICT</t>
-  </si>
-  <si>
     <t>Software Engineering</t>
   </si>
   <si>
     <t>SE</t>
   </si>
   <si>
-    <t>Voorkeur wordt aan het eind aangegeven &amp; ontgrendeld 5 inhoudelijke bonusvragen voor SE</t>
-  </si>
-  <si>
     <t>Data engineer</t>
   </si>
   <si>
     <t>DB</t>
-  </si>
-  <si>
-    <t>Voorkeur wordt aan het eind aangegeven &amp; ontgrendeld 5 inhoudelijke bonusvragen voor Dbmanagment</t>
   </si>
   <si>
     <t>geen idee</t>
@@ -418,6 +403,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,87 +701,77 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="6">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6">
@@ -806,13 +785,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7">
         <v>4</v>
@@ -821,10 +800,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7">
         <v>4</v>
@@ -833,10 +812,10 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="7">
         <v>4</v>
@@ -845,10 +824,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7">
         <v>4</v>
@@ -859,13 +838,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6">
         <v>-4</v>
@@ -877,10 +856,10 @@
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6">
         <v>-4</v>
@@ -892,10 +871,10 @@
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="6">
         <v>-4</v>
@@ -907,10 +886,10 @@
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14" s="6">
         <v>-4</v>
@@ -923,13 +902,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7">
         <v>4</v>
@@ -938,10 +917,10 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7">
         <v>4</v>
@@ -950,10 +929,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" s="7">
         <v>4</v>
@@ -962,10 +941,10 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" s="7">
         <v>4</v>
@@ -976,16 +955,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -994,13 +973,13 @@
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1009,13 +988,13 @@
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1024,13 +1003,13 @@
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1040,13 +1019,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="7">
         <v>4</v>
@@ -1055,19 +1034,19 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7">
@@ -1077,7 +1056,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7">
@@ -1089,13 +1068,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="6">
         <v>4</v>
@@ -1107,10 +1086,10 @@
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="6">
         <v>4</v>
@@ -1122,13 +1101,13 @@
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1147,13 +1126,13 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="7">
         <v>4</v>
@@ -1162,22 +1141,22 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E33" s="7">
         <v>4</v>
@@ -1186,10 +1165,10 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -1200,13 +1179,13 @@
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="6">
         <v>4</v>
@@ -1218,10 +1197,10 @@
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" s="6">
         <v>4</v>
@@ -1233,13 +1212,13 @@
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1248,7 +1227,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6">
@@ -1262,13 +1241,13 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39" s="7">
         <v>4</v>
@@ -1277,10 +1256,10 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="7">
         <v>4</v>
@@ -1289,10 +1268,10 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E41" s="7">
         <v>3.1</v>
@@ -1301,10 +1280,10 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E42" s="7">
         <v>3.1</v>
@@ -1315,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -1333,13 +1312,13 @@
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1348,10 +1327,10 @@
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="6">
         <v>4</v>
@@ -1363,10 +1342,10 @@
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E46" s="6">
         <v>4</v>
@@ -1379,25 +1358,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="7">
         <v>4</v>
@@ -1406,22 +1385,22 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50" s="7">
         <v>4</v>
@@ -1432,13 +1411,13 @@
         <v>13</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="6">
         <v>-4</v>
@@ -1450,10 +1429,10 @@
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52" s="6">
         <v>-4</v>
@@ -1465,10 +1444,10 @@
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="6">
         <v>-4</v>
@@ -1480,10 +1459,10 @@
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E54" s="6">
         <v>-4</v>
@@ -1495,7 +1474,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6">
@@ -1509,13 +1488,13 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E56" s="7">
         <v>2.2000000000000002</v>
@@ -1524,10 +1503,10 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" s="7">
         <v>4</v>
@@ -1536,7 +1515,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7">
@@ -1546,10 +1525,10 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E59" s="7">
         <v>4</v>
@@ -1560,13 +1539,13 @@
         <v>15</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" s="6">
         <v>4</v>
@@ -1578,10 +1557,10 @@
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61" s="6">
         <v>4</v>
@@ -1593,10 +1572,10 @@
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E62" s="6">
         <v>3.1</v>
@@ -1608,10 +1587,10 @@
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E63" s="6">
         <v>3.1</v>

--- a/resources/Database.xlsx
+++ b/resources/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2159263c0a168378/School/Informatica/Leerjaar 1/Praktische Opdracht Professionele Vaardigheden/challengeweek/SortingHat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolleiden-my.sharepoint.com/personal/s1141868_student_hsleiden_nl/Documents/SortingHat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008D95C8-39D7-4240-9158-EE1990F97764}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F0EFC4-4C6A-421E-BC98-AF6EF775EDD8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Vragen</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Mijn kamer is super georganiseerd!</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,21 +673,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="39.21875" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" customWidth="1"/>
+    <col min="3" max="3" width="37.796875" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.19921875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -703,7 +702,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -722,7 +721,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -737,7 +736,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -752,7 +751,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -767,7 +766,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -780,7 +779,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -797,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
         <v>16</v>
@@ -809,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
         <v>17</v>
@@ -821,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
         <v>18</v>
@@ -833,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -852,7 +851,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -867,7 +866,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -882,7 +881,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
@@ -897,7 +896,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -914,7 +913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>22</v>
@@ -926,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
         <v>23</v>
@@ -938,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="C18" t="s">
         <v>24</v>
@@ -950,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -969,7 +968,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -984,7 +983,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
@@ -999,7 +998,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -1014,7 +1013,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
         <v>35</v>
@@ -1043,7 +1042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
         <v>37</v>
@@ -1053,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="C26" t="s">
         <v>38</v>
@@ -1063,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -1082,7 +1081,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
@@ -1097,7 +1096,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
@@ -1112,7 +1111,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1121,7 +1120,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -1138,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="C32" t="s">
         <v>46</v>
@@ -1150,7 +1149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="C33" t="s">
         <v>49</v>
@@ -1162,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="C34" t="s">
         <v>50</v>
@@ -1174,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>9</v>
       </c>
@@ -1193,7 +1192,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -1208,7 +1207,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
@@ -1223,7 +1222,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
@@ -1236,7 +1235,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>59</v>
@@ -1265,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="C41" t="s">
         <v>60</v>
@@ -1277,7 +1276,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="C42" t="s">
         <v>62</v>
@@ -1289,7 +1288,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>11</v>
       </c>
@@ -1308,7 +1307,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
@@ -1323,7 +1322,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
@@ -1338,7 +1337,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
@@ -1353,7 +1352,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="C48" t="s">
         <v>74</v>
@@ -1382,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="C49" t="s">
         <v>75</v>
@@ -1394,7 +1393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>77</v>
@@ -1406,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>13</v>
       </c>
@@ -1425,7 +1424,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
@@ -1440,7 +1439,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
@@ -1455,7 +1454,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
@@ -1470,7 +1469,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
@@ -1483,7 +1482,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>14</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>86</v>
@@ -1512,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>87</v>
@@ -1522,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="C59" t="s">
         <v>88</v>
@@ -1534,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>15</v>
       </c>
@@ -1553,7 +1552,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
@@ -1568,7 +1567,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
@@ -1583,7 +1582,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">

--- a/resources/Database.xlsx
+++ b/resources/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolleiden-my.sharepoint.com/personal/s1141868_student_hsleiden_nl/Documents/SortingHat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2159263c0a168378/School/Informatica/Leerjaar 1/Praktische Opdracht Professionele Vaardigheden/challengeweek/SortingHat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F0EFC4-4C6A-421E-BC98-AF6EF775EDD8}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E069E805-BF4B-4B9C-8644-6AA7364B5047}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -367,15 +367,9 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -384,12 +378,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,931 +673,986 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.19921875" customWidth="1"/>
-    <col min="3" max="3" width="37.796875" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.19921875" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>-4</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>-4</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>-4</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>-4</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>4</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>5</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
+      <c r="E23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>7</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="6">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
+      <c r="E27" s="4">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="6">
-        <v>4</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="E28" s="4">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
+      <c r="E31" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="1"/>
+      <c r="E33" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
         <v>9</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="6">
-        <v>4</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="E35" s="4">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="6">
-        <v>4</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
+      <c r="E36" s="4">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
         <v>0</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>10</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="1"/>
+      <c r="E39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="1"/>
+      <c r="E40" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
       <c r="C42" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>3.1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="4">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
         <v>11</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="6">
-        <v>4</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
+      <c r="E45" s="4">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="6">
-        <v>4</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
+      <c r="E46" s="4">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
         <v>12</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
       <c r="C48" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="1"/>
+      <c r="E48" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
       <c r="C49" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
       <c r="C50" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="4">
+      <c r="E50" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
         <v>13</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="4">
         <v>-4</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="4">
         <v>-4</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5" t="s">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="4">
         <v>-4</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="4">
         <v>-4</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5" t="s">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4">
         <v>0</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="1">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
         <v>14</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C56" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
       <c r="C57" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="1"/>
+      <c r="E57" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
       <c r="C58" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
       <c r="C59" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="4">
+      <c r="E59" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
         <v>15</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="6">
-        <v>4</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5" t="s">
+      <c r="E60" s="4">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="6">
-        <v>4</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
+      <c r="E61" s="4">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="4">
         <v>3.1</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5" t="s">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="4">
         <v>3.1</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/Database.xlsx
+++ b/resources/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2159263c0a168378/School/Informatica/Leerjaar 1/Praktische Opdracht Professionele Vaardigheden/challengeweek/SortingHat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E069E805-BF4B-4B9C-8644-6AA7364B5047}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A2E327A-5867-40DE-A584-2A9480A8B393}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>Vragen</t>
   </si>
@@ -66,9 +66,6 @@
     <t>DB</t>
   </si>
   <si>
-    <t>geen idee</t>
-  </si>
-  <si>
     <t>Welk van deze karaktereigenschappen is je sterkste punt?</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>FICT/SE</t>
   </si>
   <si>
-    <t>2, 2</t>
-  </si>
-  <si>
     <t>doorzettingsvermogen</t>
   </si>
   <si>
@@ -171,18 +165,12 @@
     <t>SE/IICT</t>
   </si>
   <si>
-    <t>1, 3</t>
-  </si>
-  <si>
     <t>alfavakken (Bijv. Geschiedenis &amp; Nederlands)</t>
   </si>
   <si>
     <t>weet ik niet</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Vindt je het erg om fouten te maken en daarvan te leren</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>Niet perse</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ja</t>
-  </si>
-  <si>
     <t>Ja, heel erg</t>
   </si>
   <si>
@@ -228,9 +213,6 @@
     <t>IICT/FICT</t>
   </si>
   <si>
-    <t>3, 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ik ben graag bezig met mijn handen </t>
   </si>
   <si>
@@ -246,18 +228,12 @@
     <t>Taakgericht</t>
   </si>
   <si>
-    <t>FICT, DB</t>
-  </si>
-  <si>
     <t>Probleemgericht</t>
   </si>
   <si>
     <t>Situatiegericht</t>
   </si>
   <si>
-    <t>FICT, SE</t>
-  </si>
-  <si>
     <t>Professiegericht</t>
   </si>
   <si>
@@ -276,9 +252,6 @@
     <t>Visualiseren en/of visualiseren grote data bestanden</t>
   </si>
   <si>
-    <t>Weet ik niet</t>
-  </si>
-  <si>
     <t>Wat vind je van een uitdaging waarbij logisch denken van belang is?</t>
   </si>
   <si>
@@ -310,6 +283,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>FICT/DB</t>
+  </si>
+  <si>
+    <t>Ja</t>
   </si>
 </sst>
 </file>
@@ -382,10 +361,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,6 +385,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -705,10 +688,10 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -724,8 +707,8 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -739,8 +722,8 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -754,8 +737,8 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -769,86 +752,88 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" t="s">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="4">
         <v>-4</v>
@@ -857,13 +842,13 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4">
         <v>-4</v>
@@ -872,13 +857,13 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4">
         <v>-4</v>
@@ -886,205 +871,209 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4">
-        <v>-4</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    <row r="14" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="10"/>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="10"/>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" t="s">
+      <c r="A18" s="9">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4</v>
-      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>28</v>
+      <c r="E19" s="4">
+        <v>2</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>28</v>
+      <c r="E20" s="4">
+        <v>2</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="8">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>6</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E23" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>-1</v>
+      </c>
       <c r="E25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" t="s">
+      <c r="A26" s="9">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>7</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -1093,112 +1082,118 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E28" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="8">
+        <v>8</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>8</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E31" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="D33" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>9</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" t="s">
+      <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" t="s">
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>9</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" s="4">
         <v>4</v>
@@ -1207,146 +1202,148 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E36" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="D37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="3" t="s">
+      <c r="A38" s="8">
+        <v>10</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>10</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="E40" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" t="s">
         <v>57</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D41" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" t="s">
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>11</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" t="s">
+      <c r="C42" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="5">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" t="s">
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="5">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>11</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" s="4">
         <v>4</v>
@@ -1355,88 +1352,88 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="8">
+        <v>12</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>13</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="4">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>12</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="C50" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E50" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
-        <v>13</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="E51" s="4">
         <v>-4</v>
@@ -1445,13 +1442,13 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E52" s="4">
         <v>-4</v>
@@ -1460,13 +1457,13 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E53" s="4">
         <v>-4</v>
@@ -1475,183 +1472,157 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="4">
-        <v>-4</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="A54" s="8">
+        <v>14</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E56" s="5">
         <v>0</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
-        <v>14</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="5">
-        <v>2.2000000000000002</v>
-      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>15</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5">
-        <v>0</v>
-      </c>
+      <c r="E58" s="4">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
-      <c r="C59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="5">
-        <v>4</v>
-      </c>
+      <c r="C59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="4">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
-        <v>15</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E60" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E61" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/Database.xlsx
+++ b/resources/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2159263c0a168378/School/Informatica/Leerjaar 1/Praktische Opdracht Professionele Vaardigheden/challengeweek/SortingHat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A2E327A-5867-40DE-A584-2A9480A8B393}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC974A63-4DE7-4044-9774-1A9003258B0A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,10 +759,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -772,10 +772,10 @@
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
@@ -815,25 +815,25 @@
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E10" s="4">
         <v>-4</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="4">
         <v>-4</v>
@@ -845,10 +845,10 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4">
         <v>-4</v>
@@ -879,10 +879,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
@@ -892,10 +892,10 @@
       <c r="A15" s="8"/>
       <c r="B15" s="10"/>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
@@ -1593,36 +1593,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/Database.xlsx
+++ b/resources/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2159263c0a168378/School/Informatica/Leerjaar 1/Praktische Opdracht Professionele Vaardigheden/challengeweek/SortingHat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC974A63-4DE7-4044-9774-1A9003258B0A}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B570397-EAF2-4EBC-A60D-2F0B7AEFE738}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t>Vragen</t>
   </si>
@@ -105,18 +105,12 @@
     <t>kritisch</t>
   </si>
   <si>
-    <t>FICT/SE</t>
-  </si>
-  <si>
     <t>doorzettingsvermogen</t>
   </si>
   <si>
     <t>anticipatie</t>
   </si>
   <si>
-    <t>IICT/DB</t>
-  </si>
-  <si>
     <t>flexibel</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Ja, ik heb wat kennnis met de computer</t>
   </si>
   <si>
-    <t>IICT/SE</t>
-  </si>
-  <si>
     <t>nee, maar ik heb wel een computer</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>door te lezen en schrijven</t>
   </si>
   <si>
-    <t>DB/FICT</t>
-  </si>
-  <si>
     <t>in welk type schoolvakken ben jij het best?</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>exacte vakken (bijv. Wiskunde &amp; Natuurkunde)</t>
   </si>
   <si>
-    <t>SE/IICT</t>
-  </si>
-  <si>
     <t>alfavakken (Bijv. Geschiedenis &amp; Nederlands)</t>
   </si>
   <si>
@@ -195,24 +180,15 @@
     <t>een beetje</t>
   </si>
   <si>
-    <t>SE/DB</t>
-  </si>
-  <si>
     <t>hoeft niet</t>
   </si>
   <si>
-    <t>DB/SE</t>
-  </si>
-  <si>
     <t>Welk van de volgende past het beste bij jou</t>
   </si>
   <si>
     <t>Ik werk graag met computeronderdelen &amp; digitaal</t>
   </si>
   <si>
-    <t>IICT/FICT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ik ben graag bezig met mijn handen </t>
   </si>
   <si>
@@ -283,9 +259,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>FICT/DB</t>
   </si>
   <si>
     <t>Ja</t>
@@ -656,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -935,13 +908,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -950,13 +923,13 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E19" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -965,13 +938,13 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -980,13 +953,13 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -996,49 +969,49 @@
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
+      <c r="D22" s="5">
+        <v>-1</v>
       </c>
       <c r="E22" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5">
-        <v>-1</v>
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5">
         <v>-1</v>
@@ -1052,13 +1025,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="4">
         <v>4</v>
@@ -1070,10 +1043,10 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -1085,13 +1058,13 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1100,7 +1073,7 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4">
         <v>-1</v>
@@ -1116,10 +1089,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>6</v>
@@ -1132,39 +1105,39 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E31" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-1</v>
       </c>
       <c r="E32" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="5">
-        <v>-1</v>
+        <v>41</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1172,13 +1145,13 @@
         <v>9</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E34" s="4">
         <v>4</v>
@@ -1190,7 +1163,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>8</v>
@@ -1205,13 +1178,13 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E36" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1220,7 +1193,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D37" s="4">
         <v>-1</v>
@@ -1236,13 +1209,13 @@
         <v>10</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" s="5">
         <v>4</v>
@@ -1252,10 +1225,10 @@
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39" s="5">
         <v>4</v>
@@ -1265,26 +1238,26 @@
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E40" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E41" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1292,16 +1265,16 @@
         <v>11</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1310,13 +1283,13 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E43" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1325,7 +1298,7 @@
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>10</v>
@@ -1340,7 +1313,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>12</v>
@@ -1356,26 +1329,26 @@
         <v>12</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E46" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47" s="5">
         <v>4</v>
@@ -1385,23 +1358,23 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E48" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E49" s="5">
         <v>4</v>
@@ -1412,10 +1385,10 @@
         <v>13</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>6</v>
@@ -1430,7 +1403,7 @@
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>8</v>
@@ -1445,7 +1418,7 @@
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>10</v>
@@ -1460,7 +1433,7 @@
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>12</v>
@@ -1476,49 +1449,49 @@
         <v>14</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E54" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-1</v>
       </c>
       <c r="E55" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="5">
-        <v>-1</v>
+        <v>68</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E56" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>12</v>
@@ -1532,10 +1505,10 @@
         <v>15</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>6</v>
@@ -1550,7 +1523,7 @@
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>8</v>
@@ -1565,13 +1538,13 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E60" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -1580,13 +1553,13 @@
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E61" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>

--- a/resources/Database.xlsx
+++ b/resources/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2159263c0a168378/School/Informatica/Leerjaar 1/Praktische Opdracht Professionele Vaardigheden/challengeweek/SortingHat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B570397-EAF2-4EBC-A60D-2F0B7AEFE738}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_AD4D7A0C205A6B9A452FA8270F1B67EA5ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318401B9-71C5-48AD-8672-732B9791502D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,15 +72,6 @@
     <t>Analytisch denken</t>
   </si>
   <si>
-    <t>samenwerken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">problem solving </t>
-  </si>
-  <si>
-    <t>precies werken</t>
-  </si>
-  <si>
     <t>Welk van deze karaktereigenschappen is je zwakste punt?</t>
   </si>
   <si>
@@ -102,18 +93,6 @@
     <t>welk karaktereigenschap omschrijft jou het best?</t>
   </si>
   <si>
-    <t>kritisch</t>
-  </si>
-  <si>
-    <t>doorzettingsvermogen</t>
-  </si>
-  <si>
-    <t>anticipatie</t>
-  </si>
-  <si>
-    <t>flexibel</t>
-  </si>
-  <si>
     <t>Ben je handig met computers?</t>
   </si>
   <si>
@@ -123,39 +102,12 @@
     <t>Ja, ik heb wat kennnis met de computer</t>
   </si>
   <si>
-    <t>nee, maar ik heb wel een computer</t>
-  </si>
-  <si>
-    <t>nee, ik heb helemaal geen verstand van computers</t>
-  </si>
-  <si>
     <t>Hoe leer jij het best?</t>
   </si>
   <si>
-    <t>visueel</t>
-  </si>
-  <si>
-    <t>door te proberen</t>
-  </si>
-  <si>
-    <t>door te lezen en schrijven</t>
-  </si>
-  <si>
     <t>in welk type schoolvakken ben jij het best?</t>
   </si>
   <si>
-    <t>gammavakken (Bijv. Soft-skill vakken)</t>
-  </si>
-  <si>
-    <t>exacte vakken (bijv. Wiskunde &amp; Natuurkunde)</t>
-  </si>
-  <si>
-    <t>alfavakken (Bijv. Geschiedenis &amp; Nederlands)</t>
-  </si>
-  <si>
-    <t>weet ik niet</t>
-  </si>
-  <si>
     <t>Vindt je het erg om fouten te maken en daarvan te leren</t>
   </si>
   <si>
@@ -171,18 +123,9 @@
     <t>Hoeveel variatie wil je in je werk leven?</t>
   </si>
   <si>
-    <t>veel</t>
-  </si>
-  <si>
     <t>Redelijk wat</t>
   </si>
   <si>
-    <t>een beetje</t>
-  </si>
-  <si>
-    <t>hoeft niet</t>
-  </si>
-  <si>
     <t>Welk van de volgende past het beste bij jou</t>
   </si>
   <si>
@@ -262,6 +205,63 @@
   </si>
   <si>
     <t>Ja</t>
+  </si>
+  <si>
+    <t>Samenwerken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem solving </t>
+  </si>
+  <si>
+    <t>Precies werken</t>
+  </si>
+  <si>
+    <t>Doorzettingsvermogen</t>
+  </si>
+  <si>
+    <t>Flexibel</t>
+  </si>
+  <si>
+    <t>Kritisch</t>
+  </si>
+  <si>
+    <t>Anticipatie</t>
+  </si>
+  <si>
+    <t>Nee, maar ik heb wel een computer</t>
+  </si>
+  <si>
+    <t>Nee, ik heb helemaal geen verstand van computers</t>
+  </si>
+  <si>
+    <t>Door te lezen en schrijven</t>
+  </si>
+  <si>
+    <t>Visueel</t>
+  </si>
+  <si>
+    <t>Door te proberen</t>
+  </si>
+  <si>
+    <t>Weet ik niet</t>
+  </si>
+  <si>
+    <t>Gammavakken (Bijv. Soft-skill vakken)</t>
+  </si>
+  <si>
+    <t>Exacte vakken (bijv. Wiskunde &amp; Natuurkunde)</t>
+  </si>
+  <si>
+    <t>Alfavakken (Bijv. Geschiedenis &amp; Nederlands)</t>
+  </si>
+  <si>
+    <t>Veel</t>
+  </si>
+  <si>
+    <t>Een beetje</t>
+  </si>
+  <si>
+    <t>Hoeft niet</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
@@ -758,7 +758,7 @@
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -771,7 +771,7 @@
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -785,10 +785,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -818,7 +818,7 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -833,7 +833,7 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
@@ -849,10 +849,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>6</v>
@@ -865,7 +865,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="10"/>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -878,7 +878,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="10"/>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>10</v>
@@ -891,7 +891,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="10"/>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
@@ -905,10 +905,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>6</v>
@@ -923,7 +923,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>8</v>
@@ -938,7 +938,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>10</v>
@@ -953,7 +953,7 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>12</v>
@@ -969,10 +969,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D22" s="5">
         <v>-1</v>
@@ -985,7 +985,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>8</v>
@@ -998,7 +998,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>10</v>
@@ -1011,7 +1011,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5">
         <v>-1</v>
@@ -1025,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>8</v>
@@ -1058,7 +1058,7 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
@@ -1073,7 +1073,7 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4">
         <v>-1</v>
@@ -1089,10 +1089,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>6</v>
@@ -1105,7 +1105,7 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>8</v>
@@ -1118,7 +1118,7 @@
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D32" s="5">
         <v>-1</v>
@@ -1131,7 +1131,7 @@
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>12</v>
@@ -1145,10 +1145,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>6</v>
@@ -1163,7 +1163,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>8</v>
@@ -1178,7 +1178,7 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>10</v>
@@ -1193,7 +1193,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D37" s="4">
         <v>-1</v>
@@ -1209,10 +1209,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -1225,7 +1225,7 @@
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>8</v>
@@ -1238,7 +1238,7 @@
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>10</v>
@@ -1251,7 +1251,7 @@
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>12</v>
@@ -1265,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>6</v>
@@ -1283,7 +1283,7 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>8</v>
@@ -1298,7 +1298,7 @@
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>10</v>
@@ -1313,7 +1313,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>12</v>
@@ -1329,10 +1329,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>6</v>
@@ -1345,7 +1345,7 @@
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>8</v>
@@ -1358,7 +1358,7 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>10</v>
@@ -1371,7 +1371,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>12</v>
@@ -1385,10 +1385,10 @@
         <v>13</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>6</v>
@@ -1403,7 +1403,7 @@
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>8</v>
@@ -1418,7 +1418,7 @@
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>10</v>
@@ -1433,7 +1433,7 @@
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>12</v>
@@ -1449,10 +1449,10 @@
         <v>14</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>6</v>
@@ -1465,7 +1465,7 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D55" s="5">
         <v>-1</v>
@@ -1478,7 +1478,7 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>10</v>
@@ -1491,7 +1491,7 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>12</v>
@@ -1505,10 +1505,10 @@
         <v>15</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>6</v>
@@ -1523,7 +1523,7 @@
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>8</v>
@@ -1538,7 +1538,7 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>10</v>
@@ -1553,7 +1553,7 @@
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>12</v>
@@ -1566,36 +1566,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A46:A49"/>
     <mergeCell ref="B54:B57"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
